--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H2">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>39.76772191495991</v>
+        <v>101.9988180068978</v>
       </c>
       <c r="R2">
-        <v>39.76772191495991</v>
+        <v>917.9893620620799</v>
       </c>
       <c r="S2">
-        <v>0.001024015753244514</v>
+        <v>0.00225696706462355</v>
       </c>
       <c r="T2">
-        <v>0.001024015753244514</v>
+        <v>0.002256967064623551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H3">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>127.8058953118673</v>
+        <v>273.8878928619411</v>
       </c>
       <c r="R3">
-        <v>127.8058953118673</v>
+        <v>2464.99103575747</v>
       </c>
       <c r="S3">
-        <v>0.003290991886252311</v>
+        <v>0.006060422715356776</v>
       </c>
       <c r="T3">
-        <v>0.003290991886252311</v>
+        <v>0.006060422715356776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H4">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>169.6770773480432</v>
+        <v>391.7734093347849</v>
       </c>
       <c r="R4">
-        <v>169.6770773480432</v>
+        <v>3525.960684013064</v>
       </c>
       <c r="S4">
-        <v>0.004369171574384843</v>
+        <v>0.008668920865378009</v>
       </c>
       <c r="T4">
-        <v>0.004369171574384843</v>
+        <v>0.008668920865378011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H5">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>44.19257160781738</v>
+        <v>124.0097020986658</v>
       </c>
       <c r="R5">
-        <v>44.19257160781738</v>
+        <v>1116.087318887992</v>
       </c>
       <c r="S5">
-        <v>0.00113795528945719</v>
+        <v>0.002744010360115537</v>
       </c>
       <c r="T5">
-        <v>0.00113795528945719</v>
+        <v>0.002744010360115537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H6">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>3801.854713908634</v>
+        <v>4621.789702375751</v>
       </c>
       <c r="R6">
-        <v>3801.854713908634</v>
+        <v>41596.10732138177</v>
       </c>
       <c r="S6">
-        <v>0.0978974638505712</v>
+        <v>0.1022681178243941</v>
       </c>
       <c r="T6">
-        <v>0.0978974638505712</v>
+        <v>0.1022681178243942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H7">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>12218.43802357583</v>
+        <v>12410.45992071308</v>
       </c>
       <c r="R7">
-        <v>12218.43802357583</v>
+        <v>111694.1392864177</v>
       </c>
       <c r="S7">
-        <v>0.3146238309284866</v>
+        <v>0.2746110184922518</v>
       </c>
       <c r="T7">
-        <v>0.3146238309284866</v>
+        <v>0.2746110184922519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H8">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>16221.38672507734</v>
+        <v>17752.11070392697</v>
       </c>
       <c r="R8">
-        <v>16221.38672507734</v>
+        <v>159768.9963353427</v>
       </c>
       <c r="S8">
-        <v>0.4176994493542232</v>
+        <v>0.3928077792392151</v>
       </c>
       <c r="T8">
-        <v>0.4176994493542232</v>
+        <v>0.3928077792392152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H9">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>4224.877076092246</v>
+        <v>5619.151038745747</v>
       </c>
       <c r="R9">
-        <v>4224.877076092246</v>
+        <v>50572.35934871173</v>
       </c>
       <c r="S9">
-        <v>0.1087902568493014</v>
+        <v>0.1243371156000721</v>
       </c>
       <c r="T9">
-        <v>0.1087902568493014</v>
+        <v>0.1243371156000721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H10">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>20.69255733704915</v>
+        <v>25.62993697251555</v>
       </c>
       <c r="R10">
-        <v>20.69255733704915</v>
+        <v>230.66943275264</v>
       </c>
       <c r="S10">
-        <v>0.0005328317456394846</v>
+        <v>0.000567123470111518</v>
       </c>
       <c r="T10">
-        <v>0.0005328317456394846</v>
+        <v>0.0005671234701115182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H11">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>66.50194402407678</v>
+        <v>68.82167429736224</v>
       </c>
       <c r="R11">
-        <v>66.50194402407678</v>
+        <v>619.3950686762601</v>
       </c>
       <c r="S11">
-        <v>0.00171241989791781</v>
+        <v>0.001522843649138086</v>
       </c>
       <c r="T11">
-        <v>0.00171241989791781</v>
+        <v>0.001522843649138086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H12">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>88.28900632818272</v>
+        <v>98.44357008214578</v>
       </c>
       <c r="R12">
-        <v>88.28900632818272</v>
+        <v>885.9921307393121</v>
       </c>
       <c r="S12">
-        <v>0.002273435061522931</v>
+        <v>0.002178298726798363</v>
       </c>
       <c r="T12">
-        <v>0.002273435061522931</v>
+        <v>0.002178298726798364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H13">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>22.99496370000538</v>
+        <v>31.16076157425956</v>
       </c>
       <c r="R13">
-        <v>22.99496370000538</v>
+        <v>280.446854168336</v>
       </c>
       <c r="S13">
-        <v>0.0005921185308136351</v>
+        <v>0.0006895061526785033</v>
       </c>
       <c r="T13">
-        <v>0.0005921185308136351</v>
+        <v>0.0006895061526785034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H14">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>186.471133871276</v>
+        <v>420.2297191037866</v>
       </c>
       <c r="R14">
-        <v>186.471133871276</v>
+        <v>3782.06747193408</v>
       </c>
       <c r="S14">
-        <v>0.004801617226601091</v>
+        <v>0.009298584573098808</v>
       </c>
       <c r="T14">
-        <v>0.004801617226601091</v>
+        <v>0.009298584573098812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H15">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>599.2827616628517</v>
+        <v>1128.403588711372</v>
       </c>
       <c r="R15">
-        <v>599.2827616628517</v>
+        <v>10155.63229840235</v>
       </c>
       <c r="S15">
-        <v>0.01543148460711258</v>
+        <v>0.02496862007903227</v>
       </c>
       <c r="T15">
-        <v>0.01543148460711258</v>
+        <v>0.02496862007903227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H16">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>795.6170351601517</v>
+        <v>1614.08566269813</v>
       </c>
       <c r="R16">
-        <v>795.6170351601517</v>
+        <v>14526.77096428317</v>
       </c>
       <c r="S16">
-        <v>0.02048707691368172</v>
+        <v>0.03571549407508231</v>
       </c>
       <c r="T16">
-        <v>0.02048707691368172</v>
+        <v>0.03571549407508232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H17">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>207.2192858826364</v>
+        <v>510.9133938742547</v>
       </c>
       <c r="R17">
-        <v>207.2192858826364</v>
+        <v>4598.220544868292</v>
       </c>
       <c r="S17">
-        <v>0.005335880530789819</v>
+        <v>0.01130517711265293</v>
       </c>
       <c r="T17">
-        <v>0.005335880530789819</v>
+        <v>0.01130517711265294</v>
       </c>
     </row>
   </sheetData>
